--- a/Project Management/Requirements.xlsx
+++ b/Project Management/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-465" windowWidth="38400" windowHeight="24000" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="-465" windowWidth="38400" windowHeight="24000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -89,243 +89,30 @@
     <t>Project Database</t>
   </si>
   <si>
-    <t>It exists a project database where all projects are stored</t>
-  </si>
-  <si>
     <t>functional</t>
   </si>
   <si>
     <t>Project Database: Restriction</t>
   </si>
   <si>
-    <t>For the Bachelor Thesis the application only got a local database</t>
-  </si>
-  <si>
     <t>not functional</t>
   </si>
   <si>
-    <t>Project Database: Normalization</t>
-  </si>
-  <si>
-    <t>The database is normalized in the 3-NF</t>
-  </si>
-  <si>
-    <t>All projects overview</t>
-  </si>
-  <si>
     <t>The application must have an overview where all projects are displayed</t>
   </si>
   <si>
-    <t>Filter Projects</t>
-  </si>
-  <si>
-    <t>Sort Projects</t>
-  </si>
-  <si>
-    <t>Sort Projects: Standard Sort</t>
-  </si>
-  <si>
-    <t>The Standard  sort method for the projects is the last edit date</t>
-  </si>
-  <si>
     <t>Reason</t>
   </si>
   <si>
-    <t>Search Project</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
     <t>Priority2</t>
   </si>
   <si>
-    <t>In the project Overview exists the possibility to search a project</t>
-  </si>
-  <si>
-    <t>Project Grouping</t>
-  </si>
-  <si>
-    <t>All Projects need to be groupable in project overview</t>
-  </si>
-  <si>
-    <t>Component Search</t>
-  </si>
-  <si>
-    <t>It has to be possible to search single project components</t>
-  </si>
-  <si>
-    <t>Search Results</t>
-  </si>
-  <si>
-    <t>The search results need to be displayed in their own screen</t>
-  </si>
-  <si>
-    <t>Sort Search Results</t>
-  </si>
-  <si>
-    <t>The search results need to be searchable</t>
-  </si>
-  <si>
-    <t>Sort Search Results - Standard Sortation</t>
-  </si>
-  <si>
-    <t>The standard sortation for the Search results is alphabetical ascending</t>
-  </si>
-  <si>
-    <t>Complete Cost Calculation</t>
-  </si>
-  <si>
-    <t>The cost calculation has to be independent from the choosen estimation method</t>
-  </si>
-  <si>
-    <t>Modulation of Cost Estimation Methods</t>
-  </si>
-  <si>
-    <t>There must not be any dependency between the estimation methods.</t>
-  </si>
-  <si>
-    <t>Transformation of Estimation Methods</t>
-  </si>
-  <si>
-    <t>Estimation Methods must be transformable into other transformation methods</t>
-  </si>
-  <si>
-    <t>Transformation of Estimation Methods - Data</t>
-  </si>
-  <si>
-    <t>No data has to be lost after the transformation process</t>
-  </si>
-  <si>
-    <t>Transformation of Estimation Methods - Function</t>
-  </si>
-  <si>
-    <t>There should be an algorithm which transforms an estimation method into any other transformation method</t>
-  </si>
-  <si>
-    <t>Transformation of Estimation Methods - Storage Space</t>
-  </si>
-  <si>
-    <t>The Storage Space after an transformation of an Project shoul not be more than 1.5 times bigger</t>
-  </si>
-  <si>
-    <t>Design Guideline</t>
-  </si>
-  <si>
-    <t>The application must fullfill des Design Guidelines from Goole - Material Design</t>
-  </si>
-  <si>
-    <t>Save Changes</t>
-  </si>
-  <si>
-    <t>All Changes in the Projects or Settings need to saved automatically</t>
-  </si>
-  <si>
     <t>Create Project</t>
   </si>
   <si>
-    <t>Create Project: Project Name</t>
-  </si>
-  <si>
-    <t>Create Project: Set Estimation Method</t>
-  </si>
-  <si>
-    <t>To create a Project an available estimation method must be set</t>
-  </si>
-  <si>
-    <t>Create Project: Project Phase</t>
-  </si>
-  <si>
-    <t>For the creation Process the actual Project Phase must be set</t>
-  </si>
-  <si>
-    <t>There has to be the possibility to add existing project documents</t>
-  </si>
-  <si>
-    <t>Create Project: Suggest Estimation Method</t>
-  </si>
-  <si>
-    <t>There should be the possibility to calculate the best fittin estimation method for the project</t>
-  </si>
-  <si>
-    <t>Create Project: Suggest Estimation Method - Sorting</t>
-  </si>
-  <si>
-    <t>The suggested methods are sortet after the best fitting</t>
-  </si>
-  <si>
-    <t>Find Related Projects</t>
-  </si>
-  <si>
-    <t>In the projects overview the user has the possibility to filter the project propertiers</t>
-  </si>
-  <si>
-    <t>In the projects overview the user has the possibility to sort the projects properties</t>
-  </si>
-  <si>
-    <t>After an Estimation Method is set the influencing factors are loaded</t>
-  </si>
-  <si>
-    <t>Create Project: Set Influencing Factors</t>
-  </si>
-  <si>
-    <t>Affinity Matrix</t>
-  </si>
-  <si>
-    <t>Related Projects are calculated with the affinity matrix</t>
-  </si>
-  <si>
-    <t>Only Projects with a affinity matrix of X should be considered for calculation</t>
-  </si>
-  <si>
-    <t>With the Affinity Matrix it must be possible to find related projects</t>
-  </si>
-  <si>
-    <t>Load Components From Other Projects</t>
-  </si>
-  <si>
-    <t>It is possible to copy Components from other projects into the actual project</t>
-  </si>
-  <si>
-    <t>Project Organization</t>
-  </si>
-  <si>
-    <t>Each Project got Components which can easily be exchanged.</t>
-  </si>
-  <si>
-    <t>Project Organization: Total Expenditure</t>
-  </si>
-  <si>
-    <t>The total expenditure of a projects results of the sum of the estimated components costs.</t>
-  </si>
-  <si>
-    <t>Project Information</t>
-  </si>
-  <si>
-    <t>It is possible to view all informations of a project</t>
-  </si>
-  <si>
-    <t>Edit Project Information</t>
-  </si>
-  <si>
-    <t>All informations set by creation of a project can be changed later</t>
-  </si>
-  <si>
-    <t>Change Project Estimation Method</t>
-  </si>
-  <si>
-    <t>The Project Estimation Method can be changed</t>
-  </si>
-  <si>
-    <t>Affinity Matrix: Fault Tolerance</t>
-  </si>
-  <si>
-    <t>Change Project Estimation Method: Transformation</t>
-  </si>
-  <si>
-    <t>After Changing the estimation method the project will be automatically transformt into the new estimation method</t>
-  </si>
-  <si>
     <t>The application must allow a quick and mobile cost estimation of IT Projects</t>
   </si>
   <si>
@@ -503,12 +290,6 @@
     <t>R051</t>
   </si>
   <si>
-    <t>Create Project: unique ID</t>
-  </si>
-  <si>
-    <t>Create Project: Load Project Influence Factors</t>
-  </si>
-  <si>
     <t>R052</t>
   </si>
   <si>
@@ -524,103 +305,298 @@
     <t>R056</t>
   </si>
   <si>
-    <t>Create Project: Architecture</t>
-  </si>
-  <si>
-    <t>Create Project: Development Market</t>
-  </si>
-  <si>
-    <t>Create Project: Development Kind</t>
-  </si>
-  <si>
-    <t>Create Project: Process Methology</t>
-  </si>
-  <si>
-    <t>Create Project: Programming Language</t>
-  </si>
-  <si>
-    <t>Create Project: Platform</t>
-  </si>
-  <si>
-    <t>Create Project: Industry Sector</t>
-  </si>
-  <si>
-    <t>Create Project: Project Icon</t>
-  </si>
-  <si>
-    <t>Create Project: Guided Creation Process</t>
-  </si>
-  <si>
-    <t>Create Project: List Creation</t>
-  </si>
-  <si>
-    <t>To create a Project a new Name must set</t>
-  </si>
-  <si>
-    <t>Create Project: Long Project Name</t>
-  </si>
-  <si>
-    <t>Create Project: Preselected Properties</t>
-  </si>
-  <si>
-    <t>One value must be preselected for all properties.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The development market of the Project is selectable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The development kind of the Project is selectable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The programming language of the Project is selectable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The platform of the Project is selectable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The industry sector of the Project is selectable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The architecture of the Project is selectable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The project icon of the Project is selectable </t>
-  </si>
-  <si>
-    <t>It is possible to start a guided creation for the project which guides the user through each step</t>
-  </si>
-  <si>
     <t>It is possible to create a new project in the application</t>
   </si>
   <si>
-    <t>It is possible to create a new project with a list creation which inherits all properties for the creation</t>
-  </si>
-  <si>
-    <t>Create Project: Project Properties</t>
-  </si>
-  <si>
-    <t>Create Project: Property Sorting</t>
-  </si>
-  <si>
-    <t>All Properties are sorted alphabetically descending for the selection</t>
-  </si>
-  <si>
-    <t>All Projects have an unique ID.</t>
-  </si>
-  <si>
-    <t>All Influence Factors need to be set to complete the creation process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The process methology of the Project is selectable </t>
-  </si>
-  <si>
-    <t>Project names have to be limited to 40 characters</t>
-  </si>
-  <si>
-    <t>Create Project: description</t>
-  </si>
-  <si>
-    <t>It should be possible to add a project description</t>
+    <t>Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database </t>
+  </si>
+  <si>
+    <t>The application stores all demanded informations in a database.</t>
+  </si>
+  <si>
+    <t>It exists a database where all projects are stored.</t>
+  </si>
+  <si>
+    <t>For the Bachelor Thesis the application only got a local database.</t>
+  </si>
+  <si>
+    <t>R057</t>
+  </si>
+  <si>
+    <t>Delete Flag</t>
+  </si>
+  <si>
+    <t>Deleted projects get a deletion flag before they are deleted completely</t>
+  </si>
+  <si>
+    <t>R058</t>
+  </si>
+  <si>
+    <t>Erase Deleted Projects</t>
+  </si>
+  <si>
+    <t>Projects with a deletion flag can be erased from the database.</t>
+  </si>
+  <si>
+    <t>R059</t>
+  </si>
+  <si>
+    <t>R060</t>
+  </si>
+  <si>
+    <t>R061</t>
+  </si>
+  <si>
+    <t>R062</t>
+  </si>
+  <si>
+    <t>R063</t>
+  </si>
+  <si>
+    <t>R064</t>
+  </si>
+  <si>
+    <t>R065</t>
+  </si>
+  <si>
+    <t>R066</t>
+  </si>
+  <si>
+    <t>R067</t>
+  </si>
+  <si>
+    <t>R068</t>
+  </si>
+  <si>
+    <t>R069</t>
+  </si>
+  <si>
+    <t>R070</t>
+  </si>
+  <si>
+    <t>R071</t>
+  </si>
+  <si>
+    <t>R072</t>
+  </si>
+  <si>
+    <t>R073</t>
+  </si>
+  <si>
+    <t>R074</t>
+  </si>
+  <si>
+    <t>R075</t>
+  </si>
+  <si>
+    <t>R076</t>
+  </si>
+  <si>
+    <t>R077</t>
+  </si>
+  <si>
+    <t>R078</t>
+  </si>
+  <si>
+    <t>R079</t>
+  </si>
+  <si>
+    <t>R080</t>
+  </si>
+  <si>
+    <t>R081</t>
+  </si>
+  <si>
+    <t>R082</t>
+  </si>
+  <si>
+    <t>R083</t>
+  </si>
+  <si>
+    <t>R084</t>
+  </si>
+  <si>
+    <t>R085</t>
+  </si>
+  <si>
+    <t>R086</t>
+  </si>
+  <si>
+    <t>R087</t>
+  </si>
+  <si>
+    <t>R088</t>
+  </si>
+  <si>
+    <t>R089</t>
+  </si>
+  <si>
+    <t>R090</t>
+  </si>
+  <si>
+    <t>R091</t>
+  </si>
+  <si>
+    <t>R092</t>
+  </si>
+  <si>
+    <t>Stored Property Parameters</t>
+  </si>
+  <si>
+    <t>The parameters for each property are stored in the database.</t>
+  </si>
+  <si>
+    <t>Property Distance Information</t>
+  </si>
+  <si>
+    <t>The database contains all information to calculate the distance of projects</t>
+  </si>
+  <si>
+    <t>View deleted projects</t>
+  </si>
+  <si>
+    <t>It is possible to view all projects with a deletion flag</t>
+  </si>
+  <si>
+    <t>Database size</t>
+  </si>
+  <si>
+    <t>The application allows to view the physical size of the database in MB</t>
+  </si>
+  <si>
+    <t>Projects Overview</t>
+  </si>
+  <si>
+    <t>Filter projects</t>
+  </si>
+  <si>
+    <t>In the projects overview the user has the possibility to sort the project properties</t>
+  </si>
+  <si>
+    <t>In the projects overview the user has the possibility to filter the project properties</t>
+  </si>
+  <si>
+    <t>Sort projects</t>
+  </si>
+  <si>
+    <t>Sort projects: Standard sort</t>
+  </si>
+  <si>
+    <t>The standard sort method for the projects is the creation date</t>
+  </si>
+  <si>
+    <t>Search project</t>
+  </si>
+  <si>
+    <t>It is possible to search project after name</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Project Creation</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>To create a project, a name must be set</t>
+  </si>
+  <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>All projects must have an unique ID</t>
+  </si>
+  <si>
+    <t>Estimation Method</t>
+  </si>
+  <si>
+    <t>To create a project, an available estimation method must be set</t>
+  </si>
+  <si>
+    <t>Load Estimation Method Influence Factos</t>
+  </si>
+  <si>
+    <t>After an estimation method is set, all available influence factor sets are loaded</t>
+  </si>
+  <si>
+    <t>Set Influence Factor</t>
+  </si>
+  <si>
+    <t>An influence factor needs to be set to complete the project creation</t>
+  </si>
+  <si>
+    <t>Project Phase</t>
+  </si>
+  <si>
+    <t>The actual project phase must be set to complete the project creation</t>
+  </si>
+  <si>
+    <t>Project Properties</t>
+  </si>
+  <si>
+    <t>It must be possible to add existing project properties</t>
+  </si>
+  <si>
+    <t>Project Property</t>
+  </si>
+  <si>
+    <t>Development Market</t>
+  </si>
+  <si>
+    <t>Development Kind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Methology </t>
+  </si>
+  <si>
+    <t>Programming Language</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Industry Sector</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>The development market of the Project is selectable</t>
+  </si>
+  <si>
+    <t>The development kind of the Project is selectable</t>
+  </si>
+  <si>
+    <t>The process methology of the Project is selectable</t>
+  </si>
+  <si>
+    <t>The programming language of the Project is selectable</t>
+  </si>
+  <si>
+    <t>The platform of the Project is selectable</t>
+  </si>
+  <si>
+    <t>The industry sector of the Project is selectable</t>
+  </si>
+  <si>
+    <t>The architecture of the Project is selectable</t>
+  </si>
+  <si>
+    <t>Project Icon</t>
+  </si>
+  <si>
+    <t>It is possible to select an icon for the project</t>
+  </si>
+  <si>
+    <t>Guided Project Creation Process</t>
+  </si>
+  <si>
+    <t>It is possible to start a guided creation for the project which guides the user through each step.</t>
   </si>
 </sst>
 </file>
@@ -663,7 +639,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -811,6 +787,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -819,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -849,6 +836,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1382,8 +1370,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:H57" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:H57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:H93" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:H93"/>
+  <sortState ref="A2:H57">
+    <sortCondition ref="A1:A57"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="18"/>
     <tableColumn id="2" name="Titel" dataDxfId="17"/>
@@ -1741,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1754,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1765,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -1787,7 +1778,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1798,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1809,7 +1800,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1820,7 +1811,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1831,7 +1822,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1853,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1855,8 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1878,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>20</v>
@@ -1890,26 +1882,24 @@
         <v>5</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>8</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1917,21 +1907,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1939,21 +1927,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>28</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1961,21 +1941,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1983,21 +1961,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
@@ -2005,21 +1981,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2027,21 +2001,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
@@ -2049,21 +2021,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
@@ -2071,21 +2039,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2093,21 +2053,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>43</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
@@ -2115,21 +2067,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="6" t="s">
         <v>9</v>
       </c>
@@ -2137,21 +2081,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
@@ -2159,21 +2095,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
@@ -2181,21 +2109,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="12" t="s">
         <v>51</v>
       </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
@@ -2203,21 +2123,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="6" t="s">
         <v>9</v>
       </c>
@@ -2225,21 +2137,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="6" t="s">
         <v>9</v>
       </c>
@@ -2247,21 +2151,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
@@ -2269,21 +2165,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="6" t="s">
         <v>9</v>
       </c>
@@ -2291,21 +2185,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>61</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="6" t="s">
         <v>9</v>
       </c>
@@ -2313,21 +2199,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="6" t="s">
         <v>9</v>
       </c>
@@ -2335,21 +2213,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
@@ -2357,21 +2227,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>189</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="6" t="s">
         <v>9</v>
       </c>
@@ -2379,21 +2241,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="6" t="s">
         <v>9</v>
       </c>
@@ -2401,21 +2261,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D25" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="6" t="s">
         <v>9</v>
       </c>
@@ -2423,21 +2281,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
@@ -2445,21 +2301,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="6" t="s">
         <v>9</v>
       </c>
@@ -2467,21 +2321,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
@@ -2489,21 +2341,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="6" t="s">
         <v>9</v>
       </c>
@@ -2511,21 +2361,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="6" t="s">
         <v>9</v>
       </c>
@@ -2533,21 +2381,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="6" t="s">
         <v>9</v>
       </c>
@@ -2555,21 +2401,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="6" t="s">
         <v>9</v>
       </c>
@@ -2577,21 +2421,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="6" t="s">
         <v>9</v>
       </c>
@@ -2599,21 +2441,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D34" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="6" t="s">
         <v>9</v>
       </c>
@@ -2621,21 +2461,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D35" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="6" t="s">
         <v>9</v>
       </c>
@@ -2643,21 +2481,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D36" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="6" t="s">
         <v>9</v>
       </c>
@@ -2665,21 +2501,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D37" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="6" t="s">
         <v>9</v>
       </c>
@@ -2687,21 +2521,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="D38" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="6" t="s">
         <v>9</v>
       </c>
@@ -2709,21 +2541,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="6" t="s">
         <v>9</v>
       </c>
@@ -2731,21 +2561,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>7</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="6" t="s">
         <v>9</v>
       </c>
@@ -2753,21 +2581,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>197</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="6" t="s">
         <v>9</v>
       </c>
@@ -2775,21 +2595,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>180</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="6" t="s">
         <v>9</v>
       </c>
@@ -2797,21 +2609,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>199</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>6</v>
-      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="6" t="s">
         <v>9</v>
       </c>
@@ -2819,14 +2623,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>193</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="12"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
@@ -2835,21 +2635,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>74</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="6" t="s">
         <v>9</v>
       </c>
@@ -2857,21 +2649,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>76</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="6" t="s">
         <v>9</v>
       </c>
@@ -2879,21 +2663,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="6" t="s">
         <v>9</v>
       </c>
@@ -2901,21 +2677,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="12" t="s">
         <v>84</v>
       </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="6" t="s">
         <v>9</v>
       </c>
@@ -2923,21 +2691,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="12" t="s">
         <v>85</v>
       </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
       <c r="G49" s="6" t="s">
         <v>9</v>
       </c>
@@ -2945,14 +2705,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>87</v>
-      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -2961,14 +2717,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>89</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -2977,14 +2729,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>91</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -2993,14 +2741,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>93</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -3009,14 +2753,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>95</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -3025,14 +2765,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>97</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -3041,14 +2777,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>100</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -3057,7 +2789,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3066,6 +2798,474 @@
       <c r="F57" s="12"/>
       <c r="G57" s="6"/>
       <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3080,13 +3280,13 @@
           <x14:formula1>
             <xm:f>'Master Data'!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F57</xm:sqref>
+          <xm:sqref>F2:F93</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Master Data'!$D$4:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E57</xm:sqref>
+          <xm:sqref>E2:E93</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3112,7 +3312,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>20</v>
@@ -3123,7 +3323,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -3131,7 +3331,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">

--- a/Project Management/Requirements.xlsx
+++ b/Project Management/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="-465" windowWidth="38400" windowHeight="24000" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="-465" windowWidth="38400" windowHeight="24000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Targets" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="391">
   <si>
     <t>ID</t>
   </si>
@@ -597,6 +597,603 @@
   </si>
   <si>
     <t>It is possible to start a guided creation for the project which guides the user through each step.</t>
+  </si>
+  <si>
+    <t>List Creation</t>
+  </si>
+  <si>
+    <t>Project Names Length</t>
+  </si>
+  <si>
+    <t>Preselected Properties</t>
+  </si>
+  <si>
+    <t>It is possible to create a new project with a list creation which inherits all properties for the creation</t>
+  </si>
+  <si>
+    <t>Project names have to be limited to 40 characters.</t>
+  </si>
+  <si>
+    <t>For each property one value must be preselected.</t>
+  </si>
+  <si>
+    <t>Project description</t>
+  </si>
+  <si>
+    <t>It should be possible to add a project description</t>
+  </si>
+  <si>
+    <t>Property Sorting</t>
+  </si>
+  <si>
+    <t>All properties are sorted alphabetically descending for selection</t>
+  </si>
+  <si>
+    <t>Suggest Estimation Method</t>
+  </si>
+  <si>
+    <t>There should be the possibility to calculate the best fitting estimation method for the project</t>
+  </si>
+  <si>
+    <t>Suggest Estimation Method - Sorting</t>
+  </si>
+  <si>
+    <t>The suggested methods are sorted after the best fitting</t>
+  </si>
+  <si>
+    <t>Guided Creation - Progress</t>
+  </si>
+  <si>
+    <t>Cancel Project Creation</t>
+  </si>
+  <si>
+    <t>The progress of the guided creation is visible</t>
+  </si>
+  <si>
+    <t>If the user cancels the creation he will be warned that unsaved data will not be saved.</t>
+  </si>
+  <si>
+    <t>Each project must have projects</t>
+  </si>
+  <si>
+    <t>Project Properties View</t>
+  </si>
+  <si>
+    <t>It is possible to get a view of all properties of a project.</t>
+  </si>
+  <si>
+    <t>Saving Project Properties</t>
+  </si>
+  <si>
+    <t>All properties are saved into the database</t>
+  </si>
+  <si>
+    <t>Property: Development Market</t>
+  </si>
+  <si>
+    <t>Property: Development Kind</t>
+  </si>
+  <si>
+    <t>Property: Process Methology</t>
+  </si>
+  <si>
+    <t>Property: Programming Language</t>
+  </si>
+  <si>
+    <t>Property: Platform</t>
+  </si>
+  <si>
+    <t>Property: Industry Sector</t>
+  </si>
+  <si>
+    <t>Property: Software Architecture</t>
+  </si>
+  <si>
+    <t>All projects contain the property for development market.</t>
+  </si>
+  <si>
+    <t>All projects contain the property for development kind.</t>
+  </si>
+  <si>
+    <t>All projects contain the property for process methodology.</t>
+  </si>
+  <si>
+    <t>All projects contain the property for programming language.</t>
+  </si>
+  <si>
+    <t>All projects contain the property for platform.</t>
+  </si>
+  <si>
+    <t>All projects contain the property for industry sector.</t>
+  </si>
+  <si>
+    <t>All projects contain the property for software architecture.</t>
+  </si>
+  <si>
+    <t>Automatic Save</t>
+  </si>
+  <si>
+    <t>Changes on project properties are saved automatically</t>
+  </si>
+  <si>
+    <t>Project Estimation</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>An Estimation of projects is possible in all implemented estimation techniques.</t>
+  </si>
+  <si>
+    <t>Function Point Estimation</t>
+  </si>
+  <si>
+    <t>An estimation with the function point technique is possible.</t>
+  </si>
+  <si>
+    <t>Calculation Total Points</t>
+  </si>
+  <si>
+    <t>The Total Points of the estimation will be calculated automatically</t>
+  </si>
+  <si>
+    <t>Calculation Evaluated Points</t>
+  </si>
+  <si>
+    <t>The Evaluated Points of the estimation will be calculated automatically with the set influence factor</t>
+  </si>
+  <si>
+    <t>The man days will be calculated automatically for the estimation.</t>
+  </si>
+  <si>
+    <t>Man Days Calculation</t>
+  </si>
+  <si>
+    <t>Man Days</t>
+  </si>
+  <si>
+    <t>The man days will be calculated with a basis factor if no terminated project is available</t>
+  </si>
+  <si>
+    <t>Adapted Man Days Calculation</t>
+  </si>
+  <si>
+    <t>If terminated projects exists, the man days will be calculated with an average points-per-day value</t>
+  </si>
+  <si>
+    <t>Change Inuence Factor Set</t>
+  </si>
+  <si>
+    <t>It is possible to change the set of infuence factors of a project.</t>
+  </si>
+  <si>
+    <t>Terminate Project</t>
+  </si>
+  <si>
+    <t>Each estimation must allow a termination of the project.</t>
+  </si>
+  <si>
+    <t>Editing After Termination</t>
+  </si>
+  <si>
+    <t>A terminated project cannot be edited.</t>
+  </si>
+  <si>
+    <t>Influence Factors</t>
+  </si>
+  <si>
+    <t>The application allows the creation of a new infuence factor set.</t>
+  </si>
+  <si>
+    <t>Influence Factor Name</t>
+  </si>
+  <si>
+    <t>Create New Influence Factor</t>
+  </si>
+  <si>
+    <t>Each influence factor must contain a name.</t>
+  </si>
+  <si>
+    <t>Influence Factor Empty Name</t>
+  </si>
+  <si>
+    <t>The name for an influence factor must not be an empty string.</t>
+  </si>
+  <si>
+    <t>Influence Factor ID</t>
+  </si>
+  <si>
+    <t>Each influence factor set must have an unique id.</t>
+  </si>
+  <si>
+    <t>Influence Factor Selection</t>
+  </si>
+  <si>
+    <t>All Influence Factors are sorted after the estimation technique.</t>
+  </si>
+  <si>
+    <t>Delete Influence Factor</t>
+  </si>
+  <si>
+    <t>A created influence factor set can be deleted.</t>
+  </si>
+  <si>
+    <t>Edit Influence Factor</t>
+  </si>
+  <si>
+    <t>A created Influence Factor set can be edited.</t>
+  </si>
+  <si>
+    <t>Influence Factor Sum</t>
+  </si>
+  <si>
+    <t>The sum of the factor can be shown.</t>
+  </si>
+  <si>
+    <t>Related Projects</t>
+  </si>
+  <si>
+    <t>Find Related Projects</t>
+  </si>
+  <si>
+    <t>It must be possible to _x000C_nd related projects.</t>
+  </si>
+  <si>
+    <t>Load Components From Other Projects</t>
+  </si>
+  <si>
+    <t>It is possible to copy Components from other projects into the actual project.</t>
+  </si>
+  <si>
+    <t>Project Properties Distance</t>
+  </si>
+  <si>
+    <t>The distance of two projects is calculated with all project properties.</t>
+  </si>
+  <si>
+    <t>Project Relevance</t>
+  </si>
+  <si>
+    <t>The project relevance to the selected project is given in percentage.</t>
+  </si>
+  <si>
+    <t>Related Projects Sorting</t>
+  </si>
+  <si>
+    <t>All related projects are sorted descending after their relevance.</t>
+  </si>
+  <si>
+    <t>Related Project Property</t>
+  </si>
+  <si>
+    <t>It is possible to view the properties of a related project.</t>
+  </si>
+  <si>
+    <t>Relation Border</t>
+  </si>
+  <si>
+    <t>Only projects with a relevance more than 50% are viewed.</t>
+  </si>
+  <si>
+    <t>Show All Related Projects</t>
+  </si>
+  <si>
+    <t>The application allows the option to show the relation to all projects.</t>
+  </si>
+  <si>
+    <t>Properties of Related Projects</t>
+  </si>
+  <si>
+    <t>It is possible to show the properties of a related project.</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Export Project</t>
+  </si>
+  <si>
+    <t>The application allows an exportation of projects to external _x000C_les.</t>
+  </si>
+  <si>
+    <t>An export to xls format is possible.</t>
+  </si>
+  <si>
+    <t>Export XLS</t>
+  </si>
+  <si>
+    <t>Open Exported XLS _x000C_le</t>
+  </si>
+  <si>
+    <t>The exported xls _x000C_le will be opened when it is done.</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Help Method</t>
+  </si>
+  <si>
+    <t>The application inherits articles that provide informations to the user.</t>
+  </si>
+  <si>
+    <t>Search Articles</t>
+  </si>
+  <si>
+    <t>It is possible to search help articles.</t>
+  </si>
+  <si>
+    <t>R093</t>
+  </si>
+  <si>
+    <t>R094</t>
+  </si>
+  <si>
+    <t>R095</t>
+  </si>
+  <si>
+    <t>R096</t>
+  </si>
+  <si>
+    <t>R097</t>
+  </si>
+  <si>
+    <t>R098</t>
+  </si>
+  <si>
+    <t>R099</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>R101</t>
+  </si>
+  <si>
+    <t>R102</t>
+  </si>
+  <si>
+    <t>R103</t>
+  </si>
+  <si>
+    <t>R104</t>
+  </si>
+  <si>
+    <t>R105</t>
+  </si>
+  <si>
+    <t>R106</t>
+  </si>
+  <si>
+    <t>R107</t>
+  </si>
+  <si>
+    <t>R108</t>
+  </si>
+  <si>
+    <t>R109</t>
+  </si>
+  <si>
+    <t>R110</t>
+  </si>
+  <si>
+    <t>R111</t>
+  </si>
+  <si>
+    <t>R112</t>
+  </si>
+  <si>
+    <t>R113</t>
+  </si>
+  <si>
+    <t>R114</t>
+  </si>
+  <si>
+    <t>R115</t>
+  </si>
+  <si>
+    <t>R116</t>
+  </si>
+  <si>
+    <t>R117</t>
+  </si>
+  <si>
+    <t>R118</t>
+  </si>
+  <si>
+    <t>R119</t>
+  </si>
+  <si>
+    <t>R120</t>
+  </si>
+  <si>
+    <t>Selected Articles</t>
+  </si>
+  <si>
+    <t>On the main help screen is only a selection of help articles visible.</t>
+  </si>
+  <si>
+    <t>Show all articles</t>
+  </si>
+  <si>
+    <t>It is possible to show all available articles on the screen.</t>
+  </si>
+  <si>
+    <t>Open Articles</t>
+  </si>
+  <si>
+    <t>A help article can be opened.</t>
+  </si>
+  <si>
+    <t>Shown Articles</t>
+  </si>
+  <si>
+    <t>The help articles are only shown with their title.</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>The help screen allows sending of a feedback to the producer of the application.</t>
+  </si>
+  <si>
+    <t>Saving User Informations</t>
+  </si>
+  <si>
+    <t>The application stores all necessary user informations in a database.</t>
+  </si>
+  <si>
+    <t>It is possible to set the user name.</t>
+  </si>
+  <si>
+    <t>Set User Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>It' possible to set the password.</t>
+  </si>
+  <si>
+    <t>User Name Length</t>
+  </si>
+  <si>
+    <t>The user name length is limited to 30 characters.</t>
+  </si>
+  <si>
+    <t>User Information</t>
+  </si>
+  <si>
+    <t>Password Length</t>
+  </si>
+  <si>
+    <t>Password length is limited to 30 characters.</t>
+  </si>
+  <si>
+    <t>Check Login</t>
+  </si>
+  <si>
+    <t>It is possible to verify the login information.</t>
+  </si>
+  <si>
+    <t>All user information can be displayed.</t>
+  </si>
+  <si>
+    <t>Send Support Request</t>
+  </si>
+  <si>
+    <t>The application provides the possibility to send a support request to the producer of the application.</t>
+  </si>
+  <si>
+    <t>Synchronization</t>
+  </si>
+  <si>
+    <t>Sync Frequency</t>
+  </si>
+  <si>
+    <t>It is possible to set the frequency for automatic synchronization.</t>
+  </si>
+  <si>
+    <t>Automatic Sync</t>
+  </si>
+  <si>
+    <t>The application allows to change via automatic and manual synchronization.</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>A selection which with which connection an automatic synchronization is possible is provided by the application.</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>App Information</t>
+  </si>
+  <si>
+    <t>Version Number</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>The app provides a screen with all app information.</t>
+  </si>
+  <si>
+    <t>The App Information shows the actual version number.</t>
+  </si>
+  <si>
+    <t>All license information can be viewed inside the application.</t>
+  </si>
+  <si>
+    <t>Crash Reports</t>
+  </si>
+  <si>
+    <t>All crash reports can be send to the server.</t>
+  </si>
+  <si>
+    <t>Automatically Send Crash Reports</t>
+  </si>
+  <si>
+    <t>It is possible to send crash reports automatically.</t>
+  </si>
+  <si>
+    <t>Project Database: Normalization</t>
+  </si>
+  <si>
+    <t>The database is normalized in the 3rd normalization form.</t>
+  </si>
+  <si>
+    <t>Design Guidelines</t>
+  </si>
+  <si>
+    <t>Save Changes Automatically</t>
+  </si>
+  <si>
+    <t>All changes in the application need to saved automatically.</t>
+  </si>
+  <si>
+    <t>The application must fulfill the Design Guidelines from Google - Material Design.</t>
+  </si>
+  <si>
+    <t>The application does not crash if data in the database was not found</t>
+  </si>
+  <si>
+    <t>Crash safety - Database</t>
+  </si>
+  <si>
+    <t>Error Information</t>
+  </si>
+  <si>
+    <t>If an error occurs the application provides the user with a helpful error message.</t>
+  </si>
+  <si>
+    <t>View Orientation Data Loss</t>
+  </si>
+  <si>
+    <t>By changing the phone orientation no data must be lost.</t>
+  </si>
+  <si>
+    <t>The main language for the application is English.</t>
+  </si>
+  <si>
+    <t>Main Language</t>
+  </si>
+  <si>
+    <t>Code Annotation</t>
+  </si>
+  <si>
+    <t>All annotations of the source code are made in English.</t>
+  </si>
+  <si>
+    <t>Method Annotations</t>
+  </si>
+  <si>
+    <t>Each source code method and class have an annotation that describes the use.</t>
+  </si>
+  <si>
+    <t>Implemented</t>
   </si>
 </sst>
 </file>
@@ -639,7 +1236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -787,17 +1384,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -806,7 +1392,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -836,7 +1422,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -848,6 +1433,28 @@
   <dxfs count="32">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -1057,22 +1664,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1370,40 +1961,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:H93" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:H93"/>
-  <sortState ref="A2:H57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A1:H121" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
+  <autoFilter ref="A1:H121"/>
+  <sortState ref="A2:H121">
     <sortCondition ref="A1:A57"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="18"/>
     <tableColumn id="2" name="Titel" dataDxfId="17"/>
     <tableColumn id="3" name="Description" dataDxfId="16"/>
-    <tableColumn id="8" name="Group" dataDxfId="15"/>
-    <tableColumn id="4" name="Req Kind" dataDxfId="14"/>
-    <tableColumn id="5" name="Priority" dataDxfId="13"/>
-    <tableColumn id="6" name="Author" dataDxfId="12"/>
-    <tableColumn id="7" name="Reason" dataDxfId="11"/>
+    <tableColumn id="8" name="Group" dataDxfId="0"/>
+    <tableColumn id="4" name="Req Kind" dataDxfId="15"/>
+    <tableColumn id="5" name="Priority" dataDxfId="14"/>
+    <tableColumn id="6" name="Author" dataDxfId="13"/>
+    <tableColumn id="7" name="Reason" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B3:B6" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="B3:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="B3:B7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B3:B7"/>
   <tableColumns count="1">
-    <tableColumn id="2" name="Priority2" dataDxfId="5"/>
+    <tableColumn id="2" name="Priority2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D3:D5" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabelle4" displayName="Tabelle4" ref="D3:D5" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="D3:D5"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Req Kind" dataDxfId="0"/>
+    <tableColumn id="1" name="Req Kind" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1844,18 +2435,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C108" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1869,7 +2460,7 @@
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -1895,12 +2486,16 @@
       <c r="C2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="11"/>
@@ -1915,12 +2510,16 @@
       <c r="C3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="7"/>
@@ -1929,12 +2528,22 @@
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="7"/>
@@ -1949,12 +2558,16 @@
       <c r="C5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="7"/>
@@ -1969,12 +2582,16 @@
       <c r="C6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="7"/>
@@ -1989,12 +2606,16 @@
       <c r="C7" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="6" t="s">
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="7"/>
@@ -2009,12 +2630,16 @@
       <c r="C8" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="12"/>
@@ -2029,10 +2654,16 @@
       <c r="C9" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="6" t="s">
+      <c r="D9" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="12"/>
@@ -2041,12 +2672,22 @@
       <c r="A10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6" t="s">
+      <c r="B10" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="12"/>
@@ -2055,12 +2696,22 @@
       <c r="A11" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="6" t="s">
+      <c r="B11" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="12"/>
@@ -2069,12 +2720,22 @@
       <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="6" t="s">
+      <c r="B12" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="12"/>
@@ -2083,12 +2744,22 @@
       <c r="A13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="6" t="s">
+      <c r="B13" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="12"/>
@@ -2097,12 +2768,22 @@
       <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="6" t="s">
+      <c r="B14" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="12"/>
@@ -2111,12 +2792,22 @@
       <c r="A15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="6" t="s">
+      <c r="B15" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="12"/>
@@ -2125,12 +2816,22 @@
       <c r="A16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="6" t="s">
+      <c r="B16" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="12"/>
@@ -2139,12 +2840,22 @@
       <c r="A17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="6" t="s">
+      <c r="B17" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="12"/>
@@ -2153,12 +2864,22 @@
       <c r="A18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="6" t="s">
+      <c r="B18" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="12"/>
@@ -2173,12 +2894,16 @@
       <c r="C19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="6" t="s">
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="12"/>
@@ -2187,12 +2912,22 @@
       <c r="A20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="6" t="s">
+      <c r="B20" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="12"/>
@@ -2201,12 +2936,22 @@
       <c r="A21" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="12"/>
@@ -2215,12 +2960,22 @@
       <c r="A22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="6" t="s">
+      <c r="B22" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="12"/>
@@ -2229,12 +2984,22 @@
       <c r="A23" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="6" t="s">
+      <c r="B23" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="12"/>
@@ -2249,12 +3014,16 @@
       <c r="C24" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="6" t="s">
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="12"/>
@@ -2269,12 +3038,16 @@
       <c r="C25" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="6" t="s">
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="12"/>
@@ -2289,12 +3062,16 @@
       <c r="C26" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="6" t="s">
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="12"/>
@@ -2309,12 +3086,16 @@
       <c r="C27" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="6" t="s">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="12"/>
@@ -2329,12 +3110,16 @@
       <c r="C28" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="6" t="s">
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="12"/>
@@ -2349,12 +3134,16 @@
       <c r="C29" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="6" t="s">
+      <c r="E29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="12"/>
@@ -2369,12 +3158,16 @@
       <c r="C30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="6" t="s">
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="12"/>
@@ -2389,12 +3182,16 @@
       <c r="C31" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="6" t="s">
+      <c r="E31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="12"/>
@@ -2409,12 +3206,16 @@
       <c r="C32" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="6" t="s">
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="12"/>
@@ -2429,12 +3230,16 @@
       <c r="C33" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="6" t="s">
+      <c r="E33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="12"/>
@@ -2449,12 +3254,16 @@
       <c r="C34" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="6" t="s">
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="12"/>
@@ -2469,12 +3278,16 @@
       <c r="C35" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="6" t="s">
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="7"/>
@@ -2489,12 +3302,16 @@
       <c r="C36" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="6" t="s">
+      <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="7"/>
@@ -2509,12 +3326,16 @@
       <c r="C37" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="6" t="s">
+      <c r="E37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="7"/>
@@ -2529,12 +3350,16 @@
       <c r="C38" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="6" t="s">
+      <c r="E38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="7"/>
@@ -2549,12 +3374,16 @@
       <c r="C39" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="6" t="s">
+      <c r="E39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="7"/>
@@ -2569,12 +3398,16 @@
       <c r="C40" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="6" t="s">
+      <c r="E40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="12"/>
@@ -2583,12 +3416,22 @@
       <c r="A41" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="6" t="s">
+      <c r="B41" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="7"/>
@@ -2597,12 +3440,22 @@
       <c r="A42" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="6" t="s">
+      <c r="B42" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="12"/>
@@ -2611,12 +3464,22 @@
       <c r="A43" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="6" t="s">
+      <c r="B43" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="12"/>
@@ -2625,24 +3488,46 @@
       <c r="A44" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="4"/>
+      <c r="B44" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="6" t="s">
+      <c r="B45" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="12"/>
@@ -2651,12 +3536,22 @@
       <c r="A46" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="6" t="s">
+      <c r="B46" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="12"/>
@@ -2665,12 +3560,22 @@
       <c r="A47" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="6" t="s">
+      <c r="B47" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="12"/>
@@ -2679,12 +3584,22 @@
       <c r="A48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="6" t="s">
+      <c r="B48" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="12"/>
@@ -2693,12 +3608,22 @@
       <c r="A49" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="6" t="s">
+      <c r="B49" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="12"/>
@@ -2707,96 +3632,192 @@
       <c r="A50" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="6"/>
+      <c r="B50" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="6"/>
+      <c r="B51" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H51" s="12"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="6"/>
+      <c r="B52" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="6"/>
+      <c r="B53" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="6"/>
+      <c r="B54" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="6"/>
+      <c r="B56" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="6"/>
+      <c r="B57" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2809,12 +3830,18 @@
       <c r="C58" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="6"/>
+      <c r="E58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2827,12 +3854,18 @@
       <c r="C59" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="4"/>
+      <c r="E59" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2845,12 +3878,18 @@
       <c r="C60" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="4"/>
+      <c r="E60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,24 +3902,42 @@
       <c r="C61" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="4"/>
+      <c r="E61" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="4"/>
+      <c r="B62" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2893,12 +3950,18 @@
       <c r="C63" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="4"/>
+      <c r="E63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2911,367 +3974,1291 @@
       <c r="C64" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="4"/>
+      <c r="E64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="4"/>
+      <c r="B65" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="4"/>
+      <c r="B66" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="4"/>
+      <c r="B67" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="4"/>
+      <c r="B68" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="4"/>
+      <c r="B69" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="4"/>
+      <c r="B70" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="4"/>
+      <c r="B71" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="4"/>
+      <c r="B72" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="4"/>
+      <c r="B73" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="4"/>
+      <c r="B74" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="4"/>
+      <c r="B75" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="4"/>
+      <c r="B76" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="4"/>
+      <c r="B77" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="4"/>
+      <c r="B78" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="4"/>
+      <c r="B79" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="4"/>
+      <c r="B80" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="4"/>
+      <c r="B81" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="4"/>
+      <c r="B82" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="4"/>
+      <c r="B83" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="4"/>
+      <c r="B84" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="4"/>
+      <c r="B85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="4"/>
+      <c r="B86" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="4"/>
+      <c r="B87" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="4"/>
+      <c r="B88" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="4"/>
+      <c r="B89" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="4"/>
+      <c r="B90" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="4"/>
+      <c r="B91" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="4"/>
+      <c r="B92" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="4"/>
+      <c r="B93" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3280,13 +5267,13 @@
           <x14:formula1>
             <xm:f>'Master Data'!$B$4:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F93</xm:sqref>
+          <xm:sqref>F2:F121</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Master Data'!$D$4:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E93</xm:sqref>
+          <xm:sqref>E2:E121</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3299,14 +5286,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D6"/>
+  <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3337,6 +5325,11 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
